--- a/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
+++ b/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
@@ -7,13 +7,14 @@
     <sheet sheetId="1" name="isa_run" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="mzML " state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="mzMLite" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="psmstats" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>RUN</t>
   </si>
@@ -105,7 +106,40 @@
     <t>Data Selector Format</t>
   </si>
   <si>
+    <t>Output [Data]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Selector Format </t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/assays/dilutionSeries_Chlamy/dataset/20170519 TM FScon3501/20170519 TM FScon3501.wiff</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/mzml/20170519_TM_FScon3501.mzML</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/assays/dilutionSeries_Chlamy/dataset/20170519 TM FScon3501/20170519 TM FScon3503.wiff</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/mzml/20170519_TM_FScon3503.mzML</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/mzlite/20170519 TM FScon3501.mzlite</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/mzlite/20170519 TM FScon3503.mzlite</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3501.psm</t>
+  </si>
+  <si>
+    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3503.psm</t>
   </si>
 </sst>
 </file>
@@ -161,32 +195,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable0" displayName="annotationTable0" ref="A1:C2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:C2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable0" displayName="annotationTable0" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="6">
     <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
     <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="annotationTable1" displayName="annotationTable1" ref="A1:C2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:C2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="annotationTable1" displayName="annotationTable1" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
+  <tableColumns count="6">
     <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
     <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
     <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="annotationTable2" displayName="annotationTable2" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -631,10 +699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -644,16 +712,54 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -680,16 +786,128 @@
       <c r="C1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
+++ b/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
@@ -7,14 +7,17 @@
     <sheet sheetId="1" name="isa_run" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="mzML " state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="mzMLite" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="psmstats" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="psm" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="psmstats" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="quant" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="NewTable0" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>RUN</t>
   </si>
@@ -136,10 +139,28 @@
     <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/mzlite/20170519 TM FScon3503.mzlite</t>
   </si>
   <si>
-    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3501.psm</t>
-  </si>
-  <si>
-    <t>/home/paulinehans/Dokumente/QualIQon_all/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3503.psm</t>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/psmstats/20170519 TM FScon3503.qpsm</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/psmstats/20170519 TM FScon3501.qpsm</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3501.psm</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/psm/20170519 TM FScon3503.psm</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/quant/20170519 TM FScon3501.quant</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/quant/20170519 TM FScon3503.quant</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/prot/20170519 TM FScon3501.prot</t>
+  </si>
+  <si>
+    <t>C:/Users/Pauline/Documents/QualIQon_v1.0/runs/dilution_series/prot/20170519 TM FScon3505.prot</t>
   </si>
 </sst>
 </file>
@@ -240,6 +261,72 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="annotationTable2" displayName="annotationTable2" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="annotationTable3" displayName="annotationTable3" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" name="annotationTable4" displayName="annotationTable4" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:F3">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="6" name="Data Selector Format " totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" name="annotationTable5" displayName="annotationTable5" ref="A1:F3" totalsRowShown="1" headerRowCount="1">
   <autoFilter ref="A1:F3">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -917,4 +1004,226 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
+++ b/runs/dilutionSeriesChlamy_RUNS/isa.run.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="4" name="psm" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="psmstats" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="quant" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="NewTable0" state="visible" r:id="rId10"/>
+    <sheet sheetId="7" name="prot" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
